--- a/results/nli-cv/combined/train/train_cv_results-AppleSupport-inbound.xlsx
+++ b/results/nli-cv/combined/train/train_cv_results-AppleSupport-inbound.xlsx
@@ -798,19 +798,19 @@
         <v>17</v>
       </c>
       <c r="D2">
-        <v>0.8099999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="E2">
-        <v>0.6084645673881879</v>
+        <v>0.6123369849394824</v>
       </c>
       <c r="F2">
         <v>0.8121212121212121</v>
       </c>
       <c r="G2">
-        <v>0.7962401455427532</v>
+        <v>0.7874469375379018</v>
       </c>
       <c r="H2">
-        <v>0.7559055118110236</v>
+        <v>0.7394957983193278</v>
       </c>
       <c r="I2">
         <v>68</v>
@@ -888,16 +888,16 @@
         <v>0.8799999999999999</v>
       </c>
       <c r="E5">
-        <v>0.7116245633424635</v>
+        <v>0.7223209035150899</v>
       </c>
       <c r="F5">
-        <v>0.8545454545454545</v>
+        <v>0.8606060606060606</v>
       </c>
       <c r="G5">
-        <v>0.8609005457853245</v>
+        <v>0.8660551849605822</v>
       </c>
       <c r="H5">
-        <v>0.8356164383561644</v>
+        <v>0.8413793103448276</v>
       </c>
       <c r="I5">
         <v>68</v>
@@ -1004,16 +1004,16 @@
         <v>0.9399999999999998</v>
       </c>
       <c r="E9">
-        <v>0.6920353294440191</v>
+        <v>0.7033000723291813</v>
       </c>
       <c r="F9">
-        <v>0.8484848484848485</v>
+        <v>0.8545454545454545</v>
       </c>
       <c r="G9">
-        <v>0.8491510006064281</v>
+        <v>0.8543056397816858</v>
       </c>
       <c r="H9">
-        <v>0.8226950354609929</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="I9">
         <v>68</v>
@@ -1059,7 +1059,7 @@
         <v>26</v>
       </c>
       <c r="D11">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="E11">
         <v>0.4660191233487519</v>
@@ -1175,19 +1175,19 @@
         <v>30</v>
       </c>
       <c r="D15">
-        <v>0.9800000000000001</v>
+        <v>0.9399999999999998</v>
       </c>
       <c r="E15">
-        <v>0.6469803552355854</v>
+        <v>0.6598332842154305</v>
       </c>
       <c r="F15">
-        <v>0.8303030303030303</v>
+        <v>0.8242424242424242</v>
       </c>
       <c r="G15">
-        <v>0.8182989690721649</v>
+        <v>0.8351273499090358</v>
       </c>
       <c r="H15">
-        <v>0.7846153846153845</v>
+        <v>0.8079470198675497</v>
       </c>
       <c r="I15">
         <v>68</v>
@@ -1204,19 +1204,19 @@
         <v>31</v>
       </c>
       <c r="D16">
-        <v>0.86</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="E16">
-        <v>0.7802601029900372</v>
+        <v>0.7478564253481768</v>
       </c>
       <c r="F16">
-        <v>0.9151515151515152</v>
+        <v>0.896969696969697</v>
       </c>
       <c r="G16">
-        <v>0.8842975206611571</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="H16">
-        <v>0.8372093023255814</v>
+        <v>0.8172043010752688</v>
       </c>
       <c r="I16">
         <v>44</v>
@@ -1262,19 +1262,19 @@
         <v>33</v>
       </c>
       <c r="D18">
-        <v>0.9800000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="E18">
-        <v>0.7210743801652892</v>
+        <v>0.7255281112076279</v>
       </c>
       <c r="F18">
-        <v>0.8909090909090909</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="G18">
-        <v>0.8605371900826446</v>
+        <v>0.8884297520661157</v>
       </c>
       <c r="H18">
-        <v>0.7954545454545455</v>
+        <v>0.8</v>
       </c>
       <c r="I18">
         <v>44</v>
@@ -1294,16 +1294,16 @@
         <v>0.9299999999999999</v>
       </c>
       <c r="E19">
-        <v>0.8811183029931133</v>
+        <v>0.8548859804241099</v>
       </c>
       <c r="F19">
-        <v>0.9515151515151515</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="G19">
-        <v>0.9524793388429753</v>
+        <v>0.9442148760330579</v>
       </c>
       <c r="H19">
-        <v>0.9130434782608695</v>
+        <v>0.8936170212765958</v>
       </c>
       <c r="I19">
         <v>44</v>
@@ -1352,16 +1352,16 @@
         <v>0.99</v>
       </c>
       <c r="E21">
-        <v>0.8000946913656628</v>
+        <v>0.7865178255868005</v>
       </c>
       <c r="F21">
-        <v>0.9212121212121213</v>
+        <v>0.9151515151515152</v>
       </c>
       <c r="G21">
-        <v>0.9028925619834711</v>
+        <v>0.8987603305785123</v>
       </c>
       <c r="H21">
-        <v>0.853932584269663</v>
+        <v>0.8444444444444444</v>
       </c>
       <c r="I21">
         <v>44</v>
@@ -1381,16 +1381,16 @@
         <v>0.86</v>
       </c>
       <c r="E22">
-        <v>0.5147462350044824</v>
+        <v>0.4806580133202482</v>
       </c>
       <c r="F22">
-        <v>0.7696969696969697</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="G22">
-        <v>0.7851239669421488</v>
+        <v>0.7685950413223142</v>
       </c>
       <c r="H22">
-        <v>0.6545454545454545</v>
+        <v>0.6315789473684209</v>
       </c>
       <c r="I22">
         <v>44</v>
@@ -1407,19 +1407,19 @@
         <v>38</v>
       </c>
       <c r="D23">
-        <v>0.9399999999999998</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="E23">
-        <v>0.6653040240583948</v>
+        <v>0.6640516622105241</v>
       </c>
       <c r="F23">
-        <v>0.8484848484848485</v>
+        <v>0.8424242424242424</v>
       </c>
       <c r="G23">
-        <v>0.8605371900826446</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="H23">
-        <v>0.7572815533980584</v>
+        <v>0.7547169811320754</v>
       </c>
       <c r="I23">
         <v>44</v>
@@ -1439,16 +1439,16 @@
         <v>0.9869999999999999</v>
       </c>
       <c r="E24">
-        <v>0.6470396333157188</v>
+        <v>0.6645327130973755</v>
       </c>
       <c r="F24">
-        <v>0.8181818181818182</v>
+        <v>0.8303030303030303</v>
       </c>
       <c r="G24">
-        <v>0.8615702479338843</v>
+        <v>0.8698347107438017</v>
       </c>
       <c r="H24">
-        <v>0.7368421052631579</v>
+        <v>0.75</v>
       </c>
       <c r="I24">
         <v>44</v>
@@ -1465,19 +1465,19 @@
         <v>40</v>
       </c>
       <c r="D25">
-        <v>0.99</v>
+        <v>0.991</v>
       </c>
       <c r="E25">
-        <v>0.4207000736731002</v>
+        <v>0.444731204956186</v>
       </c>
       <c r="F25">
-        <v>0.7090909090909091</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="G25">
-        <v>0.7365702479338843</v>
+        <v>0.7489669421487604</v>
       </c>
       <c r="H25">
-        <v>0.5932203389830508</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="I25">
         <v>44</v>
@@ -1497,16 +1497,16 @@
         <v>0.998</v>
       </c>
       <c r="E26">
-        <v>0.6001482030404225</v>
+        <v>0.5915790933172286</v>
       </c>
       <c r="F26">
-        <v>0.8</v>
+        <v>0.7939393939393939</v>
       </c>
       <c r="G26">
-        <v>0.8347107438016529</v>
+        <v>0.8305785123966942</v>
       </c>
       <c r="H26">
-        <v>0.7079646017699115</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="I26">
         <v>44</v>
@@ -1526,16 +1526,16 @@
         <v>0.998</v>
       </c>
       <c r="E27">
-        <v>0.6571287406727709</v>
+        <v>0.6676402299942533</v>
       </c>
       <c r="F27">
-        <v>0.8484848484848485</v>
+        <v>0.8545454545454545</v>
       </c>
       <c r="G27">
-        <v>0.8533057851239669</v>
+        <v>0.8574380165289257</v>
       </c>
       <c r="H27">
-        <v>0.7524752475247524</v>
+        <v>0.76</v>
       </c>
       <c r="I27">
         <v>44</v>
@@ -1555,16 +1555,16 @@
         <v>0.71</v>
       </c>
       <c r="E28">
-        <v>0.9069097017347382</v>
+        <v>0.8867495623482351</v>
       </c>
       <c r="F28">
-        <v>0.9757575757575757</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="G28">
-        <v>0.986013986013986</v>
+        <v>0.9825174825174825</v>
       </c>
       <c r="H28">
-        <v>0.9166666666666666</v>
+        <v>0.8979591836734693</v>
       </c>
       <c r="I28">
         <v>22</v>
@@ -1581,7 +1581,7 @@
         <v>44</v>
       </c>
       <c r="D29">
-        <v>0.8099999999999999</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="E29">
         <v>0.9069097017347382</v>
@@ -1639,19 +1639,19 @@
         <v>46</v>
       </c>
       <c r="D31">
-        <v>0.8699999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="E31">
-        <v>0.8867495623482351</v>
+        <v>0.8676100810544175</v>
       </c>
       <c r="F31">
-        <v>0.9696969696969697</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="G31">
-        <v>0.9825174825174825</v>
+        <v>0.979020979020979</v>
       </c>
       <c r="H31">
-        <v>0.8979591836734693</v>
+        <v>0.88</v>
       </c>
       <c r="I31">
         <v>22</v>
@@ -1697,7 +1697,7 @@
         <v>48</v>
       </c>
       <c r="D33">
-        <v>0.85</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="E33">
         <v>0.9069097017347382</v>
@@ -1755,19 +1755,19 @@
         <v>50</v>
       </c>
       <c r="D35">
-        <v>0.7999999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="E35">
-        <v>0.8320502943378436</v>
+        <v>0.8494029733528037</v>
       </c>
       <c r="F35">
-        <v>0.9515151515151515</v>
+        <v>0.9575757575757575</v>
       </c>
       <c r="G35">
-        <v>0.9720279720279721</v>
+        <v>0.9755244755244755</v>
       </c>
       <c r="H35">
-        <v>0.846153846153846</v>
+        <v>0.8627450980392156</v>
       </c>
       <c r="I35">
         <v>22</v>
@@ -1784,19 +1784,19 @@
         <v>51</v>
       </c>
       <c r="D36">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="E36">
-        <v>0.8676100810544175</v>
+        <v>0.8867495623482351</v>
       </c>
       <c r="F36">
-        <v>0.9636363636363636</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="G36">
-        <v>0.979020979020979</v>
+        <v>0.9825174825174825</v>
       </c>
       <c r="H36">
-        <v>0.88</v>
+        <v>0.8979591836734693</v>
       </c>
       <c r="I36">
         <v>22</v>
@@ -1813,7 +1813,7 @@
         <v>52</v>
       </c>
       <c r="D37">
-        <v>0.8799999999999999</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="E37">
         <v>0.8494029733528037</v>
@@ -1842,7 +1842,7 @@
         <v>53</v>
       </c>
       <c r="D38">
-        <v>0.82</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="E38">
         <v>0.9069097017347382</v>
@@ -1871,19 +1871,19 @@
         <v>54</v>
       </c>
       <c r="D39">
-        <v>0.8899999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="E39">
-        <v>0.8385566513510484</v>
+        <v>0.8579757250224321</v>
       </c>
       <c r="F39">
-        <v>0.9575757575757575</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="G39">
-        <v>0.9562937062937062</v>
+        <v>0.9597902097902098</v>
       </c>
       <c r="H39">
-        <v>0.8571428571428572</v>
+        <v>0.875</v>
       </c>
       <c r="I39">
         <v>22</v>
@@ -1900,19 +1900,19 @@
         <v>55</v>
       </c>
       <c r="D40">
-        <v>0.991</v>
+        <v>0.993</v>
       </c>
       <c r="E40">
-        <v>0.7359211528659659</v>
+        <v>0.8044335210322532</v>
       </c>
       <c r="F40">
-        <v>0.9575757575757575</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="G40">
-        <v>0.8566666666666667</v>
+        <v>0.8633333333333333</v>
       </c>
       <c r="H40">
-        <v>0.7586206896551724</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="I40">
         <v>15</v>
@@ -1958,19 +1958,19 @@
         <v>57</v>
       </c>
       <c r="D42">
-        <v>0.998</v>
+        <v>0.999</v>
       </c>
       <c r="E42">
-        <v>0.7359211528659659</v>
+        <v>0.7595545253127499</v>
       </c>
       <c r="F42">
-        <v>0.9575757575757575</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="G42">
-        <v>0.8566666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="H42">
-        <v>0.7586206896551724</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="I42">
         <v>15</v>
@@ -2248,7 +2248,7 @@
         <v>67</v>
       </c>
       <c r="D52">
-        <v>0.75</v>
+        <v>0.7600000000000001</v>
       </c>
       <c r="E52">
         <v>0.700528900717694</v>
@@ -2454,16 +2454,16 @@
         <v>0.8699999999999999</v>
       </c>
       <c r="E59">
-        <v>0.5236183802527107</v>
+        <v>0.4672567184860485</v>
       </c>
       <c r="F59">
-        <v>0.9575757575757575</v>
+        <v>0.9454545454545454</v>
       </c>
       <c r="G59">
-        <v>0.8176100628930818</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="H59">
-        <v>0.5333333333333333</v>
+        <v>0.4705882352941177</v>
       </c>
       <c r="I59">
         <v>6</v>
@@ -2480,7 +2480,7 @@
         <v>75</v>
       </c>
       <c r="D60">
-        <v>0.985</v>
+        <v>0.986</v>
       </c>
       <c r="E60">
         <v>0.6009021890119928</v>
@@ -2509,19 +2509,19 @@
         <v>76</v>
       </c>
       <c r="D61">
-        <v>0.983</v>
+        <v>0.9879999999999999</v>
       </c>
       <c r="E61">
-        <v>0.6009021890119928</v>
+        <v>0.700528900717694</v>
       </c>
       <c r="F61">
-        <v>0.9757575757575757</v>
+        <v>0.9818181818181818</v>
       </c>
       <c r="G61">
-        <v>0.7468553459119497</v>
+        <v>0.75</v>
       </c>
       <c r="H61">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I61">
         <v>6</v>
@@ -2538,19 +2538,19 @@
         <v>77</v>
       </c>
       <c r="D62">
-        <v>0.9</v>
+        <v>0.9869999999999999</v>
       </c>
       <c r="E62">
-        <v>0.5322721853011699</v>
+        <v>0.700528900717694</v>
       </c>
       <c r="F62">
-        <v>0.9696969696969697</v>
+        <v>0.9818181818181818</v>
       </c>
       <c r="G62">
-        <v>0.7437106918238994</v>
+        <v>0.75</v>
       </c>
       <c r="H62">
-        <v>0.5454545454545454</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I62">
         <v>6</v>
@@ -2567,19 +2567,19 @@
         <v>78</v>
       </c>
       <c r="D63">
-        <v>0.9299999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="E63">
-        <v>0.4410079831658479</v>
+        <v>0.5322721853011699</v>
       </c>
       <c r="F63">
-        <v>0.9575757575757575</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="G63">
-        <v>0.7374213836477987</v>
+        <v>0.7437106918238994</v>
       </c>
       <c r="H63">
-        <v>0.4615384615384615</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="I63">
         <v>6</v>
@@ -2596,7 +2596,7 @@
         <v>79</v>
       </c>
       <c r="D64">
-        <v>0.986</v>
+        <v>0.9800000000000001</v>
       </c>
       <c r="E64">
         <v>0.5322721853011699</v>
@@ -2625,19 +2625,19 @@
         <v>80</v>
       </c>
       <c r="D65">
-        <v>0.9</v>
+        <v>0.991</v>
       </c>
       <c r="E65">
-        <v>0.5440677008675845</v>
+        <v>0.6009021890119928</v>
       </c>
       <c r="F65">
-        <v>0.9454545454545454</v>
+        <v>0.9757575757575757</v>
       </c>
       <c r="G65">
-        <v>0.8915094339622642</v>
+        <v>0.7468553459119497</v>
       </c>
       <c r="H65">
-        <v>0.5263157894736842</v>
+        <v>0.6</v>
       </c>
       <c r="I65">
         <v>6</v>
@@ -2654,7 +2654,7 @@
         <v>81</v>
       </c>
       <c r="D66">
-        <v>0.9960000000000001</v>
+        <v>0.991</v>
       </c>
       <c r="E66">
         <v>0.700528900717694</v>
@@ -2683,7 +2683,7 @@
         <v>82</v>
       </c>
       <c r="D67">
-        <v>0.82</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="E67">
         <v>0.3903950527339061</v>
@@ -2712,7 +2712,7 @@
         <v>83</v>
       </c>
       <c r="D68">
-        <v>0.7999999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="E68">
         <v>0.3903950527339061</v>
@@ -2741,19 +2741,19 @@
         <v>84</v>
       </c>
       <c r="D69">
-        <v>0.99</v>
+        <v>0.991</v>
       </c>
       <c r="E69">
-        <v>0.5322721853011699</v>
+        <v>0.6009021890119928</v>
       </c>
       <c r="F69">
-        <v>0.9696969696969697</v>
+        <v>0.9757575757575757</v>
       </c>
       <c r="G69">
-        <v>0.7437106918238994</v>
+        <v>0.7468553459119497</v>
       </c>
       <c r="H69">
-        <v>0.5454545454545454</v>
+        <v>0.6</v>
       </c>
       <c r="I69">
         <v>6</v>
@@ -2770,7 +2770,7 @@
         <v>85</v>
       </c>
       <c r="D70">
-        <v>0.99</v>
+        <v>0.9879999999999999</v>
       </c>
       <c r="E70">
         <v>0.6009021890119928</v>
@@ -2799,7 +2799,7 @@
         <v>86</v>
       </c>
       <c r="D71">
-        <v>0.984</v>
+        <v>0.983</v>
       </c>
       <c r="E71">
         <v>0.6009021890119928</v>
@@ -2828,19 +2828,19 @@
         <v>87</v>
       </c>
       <c r="D72">
-        <v>0.8400000000000001</v>
+        <v>0.9800000000000001</v>
       </c>
       <c r="E72">
-        <v>0.5016743454143935</v>
+        <v>0.6009021890119928</v>
       </c>
       <c r="F72">
-        <v>0.9333333333333333</v>
+        <v>0.9757575757575757</v>
       </c>
       <c r="G72">
-        <v>0.8852201257861636</v>
+        <v>0.7468553459119497</v>
       </c>
       <c r="H72">
-        <v>0.4761904761904762</v>
+        <v>0.6</v>
       </c>
       <c r="I72">
         <v>6</v>
@@ -3060,19 +3060,19 @@
         <v>95</v>
       </c>
       <c r="D80">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="E80">
-        <v>0.700528900717694</v>
+        <v>0.6465210112513111</v>
       </c>
       <c r="F80">
-        <v>0.9818181818181818</v>
+        <v>0.9757575757575757</v>
       </c>
       <c r="G80">
-        <v>0.9907407407407407</v>
+        <v>0.9876543209876543</v>
       </c>
       <c r="H80">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="I80">
         <v>3</v>
@@ -3205,19 +3205,19 @@
         <v>100</v>
       </c>
       <c r="D85">
-        <v>0.9199999999999999</v>
+        <v>0.9099999999999998</v>
       </c>
       <c r="E85">
-        <v>0.6604938271604939</v>
+        <v>0.5051814855409226</v>
       </c>
       <c r="F85">
-        <v>0.9878787878787879</v>
+        <v>0.9757575757575757</v>
       </c>
       <c r="G85">
-        <v>0.8302469135802468</v>
+        <v>0.8240740740740741</v>
       </c>
       <c r="H85">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="I85">
         <v>3</v>
@@ -3234,19 +3234,19 @@
         <v>101</v>
       </c>
       <c r="D86">
-        <v>0.86</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="E86">
-        <v>0.4214662288537028</v>
+        <v>0.5051814855409226</v>
       </c>
       <c r="F86">
-        <v>0.9636363636363636</v>
+        <v>0.9757575757575757</v>
       </c>
       <c r="G86">
-        <v>0.8179012345679012</v>
+        <v>0.8240740740740741</v>
       </c>
       <c r="H86">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I86">
         <v>3</v>
@@ -3321,19 +3321,19 @@
         <v>104</v>
       </c>
       <c r="D89">
-        <v>0.7999999999999999</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="E89">
-        <v>0.4890297438969466</v>
+        <v>0.5875</v>
       </c>
       <c r="F89">
-        <v>0.9636363636363636</v>
+        <v>0.9757575757575757</v>
       </c>
       <c r="G89">
-        <v>0.7875</v>
+        <v>0.79375</v>
       </c>
       <c r="H89">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I89">
         <v>5</v>
@@ -3437,7 +3437,7 @@
         <v>108</v>
       </c>
       <c r="D93">
-        <v>0.984</v>
+        <v>0.985</v>
       </c>
       <c r="E93">
         <v>0.6617678774332315</v>
@@ -3495,7 +3495,7 @@
         <v>110</v>
       </c>
       <c r="D95">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="E95">
         <v>0.5875</v>
@@ -3553,7 +3553,7 @@
         <v>112</v>
       </c>
       <c r="D97">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="E97">
         <v>0.5322721853011699</v>
@@ -3640,19 +3640,19 @@
         <v>115</v>
       </c>
       <c r="D100">
-        <v>0.86</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="E100">
-        <v>0.5215925838520059</v>
+        <v>0.4732367924632347</v>
       </c>
       <c r="F100">
-        <v>0.9272727272727272</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="G100">
-        <v>0.9625</v>
+        <v>0.871875</v>
       </c>
       <c r="H100">
-        <v>0.4545454545454545</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I100">
         <v>5</v>
